--- a/StructureDefinition-sche-view-comp.xlsx
+++ b/StructureDefinition-sche-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T09:50:16+00:00</t>
+    <t>2022-04-08T10:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sche-view-comp.xlsx
+++ b/StructureDefinition-sche-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:19:08+00:00</t>
+    <t>2022-04-08T10:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sche-view-comp.xlsx
+++ b/StructureDefinition-sche-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:25:57+00:00</t>
+    <t>2022-04-08T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
